--- a/Interop/Excel/bin/Release/table.xlsx
+++ b/Interop/Excel/bin/Release/table.xlsx
@@ -13,6 +13,32 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Първо име</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Години</t>
+  </si>
+  <si>
+    <t>Мартин</t>
+  </si>
+  <si>
+    <t>Симеонов</t>
+  </si>
+  <si>
+    <t>Симеон</t>
+  </si>
+  <si>
+    <t>Мартинов</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,12 +376,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Interop/Excel/bin/Release/table.xlsx
+++ b/Interop/Excel/bin/Release/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Първо име</t>
   </si>
@@ -37,13 +37,16 @@
   </si>
   <si>
     <t>Мартинов</t>
+  </si>
+  <si>
+    <t>Брой редове</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +55,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,47 +397,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Interop/Excel/bin/Release/table.xlsx
+++ b/Interop/Excel/bin/Release/table.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="14340" windowHeight="8208"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="22800" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -45,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,12 +101,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -185,7 +180,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,7 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,14 +389,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -425,7 +423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -436,7 +434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -452,24 +450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
